--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000$-zero.rsm.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-85000$-zero.rsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC564F92-CC57-A147-BE4B-B1C0475B9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20C2B4-FDCF-2D4B-8462-BEA5AF6AD744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60980" yWindow="-6760" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-55360" yWindow="80" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
